--- a/analysis/results/parametric_regressions_all_market_NYSE.xlsx
+++ b/analysis/results/parametric_regressions_all_market_NYSE.xlsx
@@ -18,12 +18,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="250">
-  <si>
-    <t xml:space="preserve">                      OLS Regression Results                     </t>
-  </si>
-  <si>
-    <t>Random Effects</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
+  <si>
+    <t xml:space="preserve">                       OLS Regression Results                      </t>
+  </si>
+  <si>
+    <t>Fixed Effects</t>
   </si>
   <si>
     <t xml:space="preserve">Dep. Variable:   </t>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">  R-squared:         </t>
   </si>
   <si>
-    <t xml:space="preserve">   0.020</t>
+    <t xml:space="preserve">   0.566  </t>
   </si>
   <si>
     <t xml:space="preserve">Model:           </t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">  Adj. R-squared:    </t>
   </si>
   <si>
-    <t xml:space="preserve">   0.018</t>
+    <t xml:space="preserve">   0.496  </t>
   </si>
   <si>
     <t xml:space="preserve">Method:          </t>
@@ -59,70 +59,70 @@
     <t xml:space="preserve">  F-statistic:       </t>
   </si>
   <si>
-    <t xml:space="preserve">   7.079</t>
+    <t>-2.684e+10</t>
   </si>
   <si>
     <t xml:space="preserve">Date:            </t>
   </si>
   <si>
-    <t>Wed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21 Mar 2018</t>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22 Mar 2018</t>
   </si>
   <si>
     <t xml:space="preserve">  Prob (F-statistic):</t>
   </si>
   <si>
-    <t>1.68e-07</t>
+    <t xml:space="preserve">  1.00    </t>
   </si>
   <si>
     <t xml:space="preserve">Time:            </t>
   </si>
   <si>
-    <t xml:space="preserve">19:57:24        </t>
+    <t xml:space="preserve">14:31:49        </t>
   </si>
   <si>
     <t xml:space="preserve">  Log-Likelihood:    </t>
   </si>
   <si>
-    <t xml:space="preserve">  1394.1</t>
+    <t xml:space="preserve">  362.26  </t>
   </si>
   <si>
     <t>No. Observations:</t>
   </si>
   <si>
-    <t xml:space="preserve">  2895          </t>
+    <t xml:space="preserve">  1114          </t>
   </si>
   <si>
     <t xml:space="preserve">  AIC:               </t>
   </si>
   <si>
-    <t xml:space="preserve">  -2776.</t>
+    <t xml:space="preserve">  -416.5  </t>
   </si>
   <si>
     <t xml:space="preserve">Df Residuals:    </t>
   </si>
   <si>
-    <t xml:space="preserve">  2889          </t>
+    <t xml:space="preserve">   960          </t>
   </si>
   <si>
     <t xml:space="preserve">  BIC:               </t>
   </si>
   <si>
-    <t xml:space="preserve">  -2740.</t>
+    <t xml:space="preserve">   355.9  </t>
   </si>
   <si>
     <t xml:space="preserve">Df Model:        </t>
   </si>
   <si>
-    <t xml:space="preserve">     6          </t>
+    <t xml:space="preserve">   153          </t>
   </si>
   <si>
     <t xml:space="preserve">                     </t>
   </si>
   <si>
-    <t xml:space="preserve">        </t>
+    <t xml:space="preserve">          </t>
   </si>
   <si>
     <t xml:space="preserve">Covariance Type: </t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">HC0             </t>
   </si>
   <si>
-    <t xml:space="preserve">                         </t>
+    <t xml:space="preserve">                                      </t>
   </si>
   <si>
     <t xml:space="preserve">   coef   </t>
@@ -152,553 +152,475 @@
     <t xml:space="preserve">  0.975] </t>
   </si>
   <si>
-    <t xml:space="preserve">PrImp_Pct                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.0038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.048</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrImp_Pct_Rebate_Dummy   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.3786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -3.146</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrImp_AvgAmt             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   11.9211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.319</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   17.333</t>
-  </si>
-  <si>
-    <t>PrImp_AvgAmt_Rebate_Dummy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -5.0989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -1.465</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -11.925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrImp_AvgT               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.0345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -2.547</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrImp_AvgT_Rebate_Dummy  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.491</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.060</t>
+    <t xml:space="preserve">const                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.4096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.384</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrImp_Pct                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.2502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -2.191</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrImp_Pct_Rebate_Dummy                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.1687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.782</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrImp_AvgAmt                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -1.5889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.321</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -11.304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrImp_AvgAmt_Rebate_Dummy             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.6230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.328</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -8.092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrImp_AvgT                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.0066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -3.210</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrImp_AvgT_Rebate_Dummy               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.113</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.006</t>
   </si>
   <si>
     <t xml:space="preserve">Omnibus:      </t>
   </si>
   <si>
-    <t>1112.859</t>
+    <t>118.122</t>
   </si>
   <si>
     <t xml:space="preserve">  Durbin-Watson:     </t>
   </si>
   <si>
-    <t xml:space="preserve">   1.815 </t>
+    <t xml:space="preserve">   2.012 </t>
   </si>
   <si>
     <t>Prob(Omnibus):</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.000  </t>
+    <t xml:space="preserve"> 0.000 </t>
   </si>
   <si>
     <t xml:space="preserve">  Jarque-Bera (JB):  </t>
   </si>
   <si>
-    <t>63807.799</t>
+    <t xml:space="preserve"> 775.181 </t>
   </si>
   <si>
     <t xml:space="preserve">Skew:         </t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.014  </t>
+    <t xml:space="preserve">-0.211 </t>
   </si>
   <si>
     <t xml:space="preserve">  Prob(JB):          </t>
   </si>
   <si>
-    <t xml:space="preserve">    0.00 </t>
+    <t>4.69e-169</t>
   </si>
   <si>
     <t xml:space="preserve">Kurtosis:     </t>
   </si>
   <si>
-    <t xml:space="preserve">25.910  </t>
+    <t xml:space="preserve"> 7.065 </t>
   </si>
   <si>
     <t xml:space="preserve">  Cond. No.          </t>
   </si>
   <si>
-    <t xml:space="preserve">1.11e+04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   7.146</t>
-  </si>
-  <si>
-    <t>1.01e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1378.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2749.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2891          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2725.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     4          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrImp_ExpAmt             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   17.8577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10.338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   25.378</t>
-  </si>
-  <si>
-    <t>PrImp_ExpAmt_Rebate_Dummy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -11.6750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -2.370</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -21.333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -2.017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.0292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -2.237</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.055</t>
+    <t xml:space="preserve">6.36e+03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.557  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.487  </t>
+  </si>
+  <si>
+    <t>-4.145e+13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  351.09  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -398.2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   962          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   364.2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   151          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.419</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrImp_ExpAmt                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -10.6489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -1.499</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -24.588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrImp_ExpAmt_Rebate_Dummy             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.6489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -3.290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   24.588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.0065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -3.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.189</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.851</t>
+  </si>
+  <si>
+    <t>119.288</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 914.069 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.078 </t>
+  </si>
+  <si>
+    <t>3.25e-199</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.435 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77e+03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.565  </t>
+  </si>
+  <si>
+    <t>-4.617e+11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:31:50        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  361.93  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -415.9  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   356.6  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.4035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.351</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.2463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -2.152</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.1660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.770</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -1.2977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.261</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -11.053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.3313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.268</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -8.424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All_AvgT                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.0039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -2.753</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All_AvgT_Rebate_Dummy                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.889e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.996</t>
   </si>
   <si>
     <t xml:space="preserve">   -0.004</t>
   </si>
   <si>
-    <t xml:space="preserve">    0.0288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.207</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.054</t>
-  </si>
-  <si>
-    <t>1112.468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.803 </t>
-  </si>
-  <si>
-    <t>63417.440</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.015  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.839  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56e+04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      OLS Regression Results                      </t>
-  </si>
-  <si>
-    <t>Fixed Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.566 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.496 </t>
-  </si>
-  <si>
-    <t>1.674e+12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.00   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  362.76 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1115          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -415.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   960          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   362.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   154          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">const                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.4035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.351</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrImp_Pct                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.2463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -2.152</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrImp_Pct_Rebate_Dummy                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.1660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.770</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrImp_AvgAmt                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -1.2977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.261</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -11.053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrImp_AvgAmt_Rebate_Dummy             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.3313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.268</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -8.424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   11.086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All_AvgT                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.0039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -2.753</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All_AvgT_Rebate_Dummy                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.889e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.996</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.004</t>
   </si>
   <si>
-    <t>118.346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.952 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 780.299 </t>
+    <t>118.095</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 777.192 </t>
   </si>
   <si>
     <t xml:space="preserve">-0.209 </t>
   </si>
   <si>
-    <t>3.63e-170</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.077 </t>
+    <t>1.72e-169</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.070 </t>
   </si>
   <si>
     <t xml:space="preserve">1.01e+04 </t>
   </si>
   <si>
-    <t xml:space="preserve">                       OLS Regression Results                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.557  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.487  </t>
-  </si>
-  <si>
-    <t>-1.387e+14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.00    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:57:25        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  351.88  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -397.8  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   962          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   369.8  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   152          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.419</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrImp_ExpAmt                          </t>
+    <t>-4.445e+13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:31:51        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  351.06  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -398.1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   364.3  </t>
   </si>
   <si>
     <t xml:space="preserve">  -10.2327</t>
@@ -719,9 +641,6 @@
     <t xml:space="preserve">    3.853</t>
   </si>
   <si>
-    <t xml:space="preserve">PrImp_ExpAmt_Rebate_Dummy             </t>
-  </si>
-  <si>
     <t xml:space="preserve">   10.2328</t>
   </si>
   <si>
@@ -749,22 +668,16 @@
     <t xml:space="preserve"> 0.982</t>
   </si>
   <si>
-    <t>119.605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.949 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 917.870 </t>
+    <t>119.359</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 914.296 </t>
   </si>
   <si>
     <t xml:space="preserve">-0.080 </t>
   </si>
   <si>
-    <t>4.86e-200</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.442 </t>
+    <t>2.91e-199</t>
   </si>
   <si>
     <t xml:space="preserve">1.24e+04 </t>
@@ -1103,7 +1016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1380,30 +1293,30 @@
         <v>73</v>
       </c>
       <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
         <v>74</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>75</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>76</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>77</v>
-      </c>
-      <c r="G16" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
         <v>79</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>80</v>
-      </c>
-      <c r="C17" t="s">
-        <v>74</v>
       </c>
       <c r="D17" t="s">
         <v>81</v>
@@ -1431,47 +1344,70 @@
       <c r="D18" t="s">
         <v>88</v>
       </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1485,7 +1421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1521,7 +1457,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1535,7 +1471,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1549,7 +1485,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1566,7 +1502,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1580,7 +1516,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1594,7 +1530,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1602,13 +1538,13 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1616,7 +1552,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -1664,94 +1600,94 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
         <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
         <v>126</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1759,55 +1695,78 @@
         <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
         <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="E16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1840,10 +1799,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1857,7 +1816,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1871,7 +1830,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1885,7 +1844,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1902,7 +1861,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1910,13 +1869,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1924,13 +1883,13 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1938,13 +1897,13 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1952,13 +1911,13 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1972,12 +1931,12 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
@@ -2000,219 +1959,219 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" t="s">
         <v>154</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
         <v>155</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G12" t="s">
         <v>156</v>
-      </c>
-      <c r="D12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G12" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" t="s">
         <v>161</v>
-      </c>
-      <c r="B13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" t="s">
-        <v>165</v>
-      </c>
-      <c r="F13" t="s">
-        <v>166</v>
-      </c>
-      <c r="G13" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E15" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F15" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" t="s">
         <v>177</v>
-      </c>
-      <c r="D16" t="s">
-        <v>184</v>
-      </c>
-      <c r="E16" t="s">
-        <v>185</v>
-      </c>
-      <c r="F16" t="s">
-        <v>186</v>
-      </c>
-      <c r="G16" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D17" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E17" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F17" t="s">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="G17" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C18" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E18" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F18" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G18" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2245,10 +2204,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2262,7 +2221,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2276,7 +2235,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2290,7 +2249,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2307,7 +2266,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2315,13 +2274,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2329,13 +2288,13 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2343,13 +2302,13 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2357,13 +2316,13 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>219</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2377,12 +2336,12 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
@@ -2405,173 +2364,173 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>224</v>
+        <v>119</v>
       </c>
       <c r="F12" t="s">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>225</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="D13" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="F13" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="G13" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="E14" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="F14" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="G14" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C15" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D15" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E15" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="F15" t="s">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="G15" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="E16" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G16" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>244</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>248</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
